--- a/db/v3.1/hsFB.xlsx
+++ b/db/v3.1/hsFB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hua/Documents/Workspace/_singleCell/celltypeAnno/github_version/v1.0/db/v3.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4D6A84-9C9F-8842-9C5E-D3ACE25D7B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924731E9-41A6-CE4A-BF4F-12D594D9B3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="1480" windowWidth="27680" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2256,12 +2256,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2286,7 +2292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2314,7 +2320,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2620,9 +2627,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F327" sqref="F327"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10939,7 +10946,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="11" t="s">
         <v>6</v>
       </c>
@@ -10966,37 +10973,37 @@
         <v>721</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>6</v>
-      </c>
-      <c r="B327" t="s">
+    <row r="327" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B327" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C327" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="E327" t="s">
+      <c r="E327" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="K327" t="s">
+      <c r="K327" s="12" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>6</v>
-      </c>
-      <c r="B328" t="s">
+    <row r="328" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B328" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="E328" t="s">
+      <c r="E328" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="K328" t="s">
+      <c r="K328" s="12" t="s">
         <v>721</v>
       </c>
     </row>
